--- a/3.xlsx
+++ b/3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -289,15 +289,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>299711</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>115252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>738188</xdr:colOff>
+      <xdr:colOff>671514</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>14288</xdr:rowOff>
+      <xdr:rowOff>90488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -314,8 +314,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5196840" y="4152900"/>
-          <a:ext cx="4243388" cy="4243388"/>
+          <a:off x="5033636" y="4115752"/>
+          <a:ext cx="4324678" cy="4309111"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -579,15 +579,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:colOff>414278</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>68388</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
+      <xdr:colOff>56138</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>115265</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -611,8 +611,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4686300" y="3009900"/>
-          <a:ext cx="4518660" cy="6918960"/>
+          <a:off x="4667974" y="3106742"/>
+          <a:ext cx="4503227" cy="6967574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -636,13 +636,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>26911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:rowOff>148831</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -666,8 +666,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6438900" y="10066020"/>
-          <a:ext cx="1135380" cy="1295400"/>
+          <a:off x="6419609" y="10154759"/>
+          <a:ext cx="1131522" cy="1303502"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -955,7 +955,7 @@
   <dimension ref="A2:I20"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1090,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A31" zoomScale="158" workbookViewId="0">
+      <selection activeCell="K71" sqref="K71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1137,8 +1137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
